--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_4_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2206380.680630254</v>
+        <v>2204685.822396361</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1287228.184107714</v>
+        <v>1287228.184107716</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673444</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.17354161800006</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -707,10 +707,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -786,10 +786,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>48.39487007819866</v>
       </c>
       <c r="T3" t="n">
-        <v>123.1846644288417</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>36.21593518981624</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>80.83011447495538</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -944,22 +944,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>134.667568689459</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>178.0143880554421</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>87.7061602166668</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>183.4693513325733</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1178,10 +1178,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.83710273534405</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>106.0311077711177</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357.7795714149543</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>340.3186215224813</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>329.7287713721567</v>
+        <v>329.7287713721566</v>
       </c>
       <c r="E11" t="n">
         <v>356.9760998237355</v>
       </c>
       <c r="F11" t="n">
-        <v>381.9217754931852</v>
+        <v>381.9217754931851</v>
       </c>
       <c r="G11" t="n">
-        <v>362.4687057932576</v>
+        <v>387.9966247312782</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>122.0803402740451</v>
       </c>
       <c r="I11" t="n">
-        <v>94.85220997855063</v>
+        <v>94.85220997855059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.4731875638754</v>
+        <v>130.4731875638753</v>
       </c>
       <c r="T11" t="n">
-        <v>187.8463886171959</v>
+        <v>187.8463886171958</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>226.2032352564838</v>
       </c>
       <c r="V11" t="n">
         <v>302.7979882216086</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>324.2866984688867</v>
       </c>
       <c r="X11" t="n">
-        <v>344.7768304299428</v>
+        <v>344.7768304299427</v>
       </c>
       <c r="Y11" t="n">
         <v>361.2836684075273</v>
@@ -1467,7 +1467,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I12" t="n">
-        <v>46.07197699567762</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.02995793686992</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S12" t="n">
         <v>148.3099331995005</v>
@@ -1528,19 +1528,19 @@
         <v>154.877709933411</v>
       </c>
       <c r="C13" t="n">
-        <v>142.2925508501016</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>121.4796923980429</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>120.466777774405</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>141.9817535136541</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>81.29893165039009</v>
       </c>
       <c r="U13" t="n">
-        <v>261.3072160754404</v>
+        <v>261.3072160754403</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>261.5687280880647</v>
       </c>
       <c r="X13" t="n">
         <v>200.7553851405109</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.27726830581942</v>
+        <v>193.6303831035685</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>357.7795714149543</v>
+        <v>357.7795714149542</v>
       </c>
       <c r="C14" t="n">
-        <v>340.3186215224813</v>
+        <v>340.3186215224812</v>
       </c>
       <c r="D14" t="n">
-        <v>329.7287713721567</v>
+        <v>329.7287713721566</v>
       </c>
       <c r="E14" t="n">
-        <v>356.9760998237355</v>
+        <v>356.9760998237354</v>
       </c>
       <c r="F14" t="n">
-        <v>381.9217754931852</v>
+        <v>381.9217754931851</v>
       </c>
       <c r="G14" t="n">
-        <v>387.9966247312783</v>
+        <v>387.9966247312782</v>
       </c>
       <c r="H14" t="n">
-        <v>198.4376019037583</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>94.85220997855052</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>226.2032352564838</v>
+        <v>226.2032352564837</v>
       </c>
       <c r="V14" t="n">
-        <v>302.7979882216086</v>
+        <v>302.7979882216085</v>
       </c>
       <c r="W14" t="n">
-        <v>324.2866984688868</v>
+        <v>66.58842198656855</v>
       </c>
       <c r="X14" t="n">
-        <v>344.7768304299428</v>
+        <v>344.7768304299427</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>361.2836684075272</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I15" t="n">
-        <v>46.07197699567762</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.02995793686992</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S15" t="n">
         <v>148.3099331995005</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.877709933411</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>31.22840974500204</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>121.4796923980428</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>104.9044813177993</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>180.6773288969402</v>
+        <v>180.6773288969401</v>
       </c>
       <c r="T16" t="n">
-        <v>198.4837816320204</v>
+        <v>198.4837816320203</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>200.7553851405109</v>
+        <v>200.7553851405108</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.55629399540156</v>
+        <v>193.6303831035684</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>232.6712193579089</v>
       </c>
       <c r="I17" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417208</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949681</v>
       </c>
       <c r="T17" t="n">
         <v>130.0828834728173</v>
@@ -1941,7 +1941,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I18" t="n">
-        <v>46.07197699567762</v>
+        <v>46.07197699567759</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.02995793686992</v>
+        <v>22.02995793686989</v>
       </c>
       <c r="S18" t="n">
         <v>148.3099331995005</v>
@@ -2005,10 +2005,10 @@
         <v>84.52904570572305</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2458470430384727</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>63.71618725366439</v>
       </c>
       <c r="F19" t="n">
         <v>62.70327263002646</v>
@@ -2017,10 +2017,10 @@
         <v>84.2182483692756</v>
       </c>
       <c r="H19" t="n">
-        <v>70.12988281307797</v>
+        <v>70.12988281307798</v>
       </c>
       <c r="I19" t="n">
-        <v>41.00730760263662</v>
+        <v>41.0073076026366</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>47.14097617342078</v>
       </c>
       <c r="S19" t="n">
-        <v>122.9138237525617</v>
+        <v>59.44348354193522</v>
       </c>
       <c r="T19" t="n">
-        <v>140.7202764876419</v>
+        <v>140.7202764876418</v>
       </c>
       <c r="U19" t="n">
         <v>203.5437109310618</v>
@@ -2099,7 +2099,7 @@
         <v>232.6712193579089</v>
       </c>
       <c r="I20" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417206</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.70968241949683</v>
+        <v>72.70968241949679</v>
       </c>
       <c r="T20" t="n">
         <v>130.0828834728173</v>
       </c>
       <c r="U20" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121052</v>
       </c>
       <c r="V20" t="n">
         <v>245.0344830772301</v>
@@ -2178,7 +2178,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I21" t="n">
-        <v>46.07197699567762</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.02995793686992</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S21" t="n">
         <v>148.3099331995005</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.11420478903251</v>
+        <v>97.11420478903248</v>
       </c>
       <c r="C22" t="n">
-        <v>84.52904570572305</v>
+        <v>84.52904570572302</v>
       </c>
       <c r="D22" t="n">
-        <v>65.89769762530757</v>
+        <v>65.89769762530754</v>
       </c>
       <c r="E22" t="n">
-        <v>63.71618725366439</v>
+        <v>63.71618725366436</v>
       </c>
       <c r="F22" t="n">
-        <v>62.70327263002646</v>
+        <v>62.70327263002643</v>
       </c>
       <c r="G22" t="n">
-        <v>84.2182483692756</v>
+        <v>84.21824836927557</v>
       </c>
       <c r="H22" t="n">
-        <v>70.12988281307798</v>
+        <v>70.12988281307794</v>
       </c>
       <c r="I22" t="n">
-        <v>41.00730760263662</v>
+        <v>41.00730760263657</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.1409761734208</v>
+        <v>47.14097617342075</v>
       </c>
       <c r="S22" t="n">
         <v>122.9138237525616</v>
       </c>
       <c r="T22" t="n">
-        <v>140.7202764876419</v>
+        <v>140.7202764876418</v>
       </c>
       <c r="U22" t="n">
-        <v>74.17567309512836</v>
+        <v>203.5437109310618</v>
       </c>
       <c r="V22" t="n">
         <v>169.4198679309232</v>
@@ -2305,7 +2305,7 @@
         <v>142.9918799961324</v>
       </c>
       <c r="Y22" t="n">
-        <v>135.86687795919</v>
+        <v>6.49884012325733</v>
       </c>
     </row>
     <row r="23">
@@ -2327,16 +2327,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F23" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G23" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H23" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I23" t="n">
-        <v>37.08870483417209</v>
+        <v>37.08870483417212</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.70968241949683</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T23" t="n">
         <v>130.0828834728173</v>
@@ -2375,13 +2375,13 @@
         <v>168.4397301121053</v>
       </c>
       <c r="V23" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W23" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X23" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y23" t="n">
         <v>303.5201632631488</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C25" t="n">
-        <v>84.52904570572305</v>
+        <v>84.52904570572308</v>
       </c>
       <c r="D25" t="n">
-        <v>65.89769762530757</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>31.46235420676332</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F25" t="n">
-        <v>62.70327263002646</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>84.2182483692756</v>
+        <v>84.21824836927563</v>
       </c>
       <c r="H25" t="n">
-        <v>70.12988281307797</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I25" t="n">
-        <v>41.0073076026366</v>
+        <v>40.24024002203649</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.14097617342078</v>
+        <v>47.14097617342081</v>
       </c>
       <c r="S25" t="n">
         <v>122.9138237525617</v>
@@ -2530,13 +2530,13 @@
         <v>140.7202764876419</v>
       </c>
       <c r="U25" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V25" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W25" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X25" t="n">
         <v>142.9918799961324</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.11420478903254</v>
+        <v>31.46235420676288</v>
       </c>
       <c r="C28" t="n">
         <v>84.52904570572308</v>
@@ -2719,7 +2719,7 @@
         <v>65.8976976253076</v>
       </c>
       <c r="E28" t="n">
-        <v>63.71618725366442</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>62.70327263002649</v>
@@ -2773,7 +2773,7 @@
         <v>169.4198679309233</v>
       </c>
       <c r="W28" t="n">
-        <v>74.43718510775231</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X28" t="n">
         <v>142.9918799961324</v>
@@ -2810,7 +2810,7 @@
         <v>232.671219357909</v>
       </c>
       <c r="I29" t="n">
-        <v>37.08870483417212</v>
+        <v>37.08870483417211</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>72.70968241949684</v>
       </c>
       <c r="T29" t="n">
-        <v>130.0828834728176</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U29" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V29" t="n">
-        <v>245.0344830772302</v>
+        <v>245.0344830772301</v>
       </c>
       <c r="W29" t="n">
         <v>266.5231933245083</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.11420478903254</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>84.52904570572308</v>
+        <v>84.52904570572306</v>
       </c>
       <c r="D31" t="n">
-        <v>65.8976976253076</v>
+        <v>65.89769762530759</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>31.46235420676318</v>
       </c>
       <c r="F31" t="n">
-        <v>62.70327263002649</v>
+        <v>62.70327263002648</v>
       </c>
       <c r="G31" t="n">
-        <v>18.56639778700581</v>
+        <v>84.21824836927561</v>
       </c>
       <c r="H31" t="n">
         <v>70.129882813078</v>
       </c>
       <c r="I31" t="n">
-        <v>41.00730760263663</v>
+        <v>41.00730760263662</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.14097617342081</v>
+        <v>47.1409761734208</v>
       </c>
       <c r="S31" t="n">
         <v>122.9138237525617</v>
@@ -3004,13 +3004,13 @@
         <v>140.7202764876419</v>
       </c>
       <c r="U31" t="n">
-        <v>203.5437109310619</v>
+        <v>203.5437109310618</v>
       </c>
       <c r="V31" t="n">
-        <v>169.4198679309233</v>
+        <v>169.4198679309232</v>
       </c>
       <c r="W31" t="n">
-        <v>203.8052229436863</v>
+        <v>203.8052229436862</v>
       </c>
       <c r="X31" t="n">
         <v>142.9918799961324</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.46235420676355</v>
+        <v>97.11420478903254</v>
       </c>
       <c r="C34" t="n">
         <v>84.52904570572308</v>
       </c>
       <c r="D34" t="n">
-        <v>65.8976976253076</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.2458470430381823</v>
       </c>
       <c r="F34" t="n">
         <v>62.70327263002649</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705759</v>
       </c>
       <c r="C35" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D35" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277783</v>
       </c>
       <c r="E35" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793571</v>
       </c>
       <c r="F35" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488068</v>
       </c>
       <c r="G35" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H35" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I35" t="n">
-        <v>37.08870483417212</v>
+        <v>37.08870483417219</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949691</v>
       </c>
       <c r="T35" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U35" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121054</v>
       </c>
       <c r="V35" t="n">
         <v>245.0344830772302</v>
@@ -3332,7 +3332,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y35" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.11420478903254</v>
+        <v>97.11420478903261</v>
       </c>
       <c r="C37" t="n">
-        <v>84.52904570572308</v>
+        <v>84.52904570572315</v>
       </c>
       <c r="D37" t="n">
-        <v>65.8976976253076</v>
+        <v>65.89769762530767</v>
       </c>
       <c r="E37" t="n">
-        <v>63.71618725366442</v>
+        <v>63.71618725366449</v>
       </c>
       <c r="F37" t="n">
-        <v>62.70327263002649</v>
+        <v>62.70327263002656</v>
       </c>
       <c r="G37" t="n">
-        <v>84.21824836927563</v>
+        <v>84.2182483692757</v>
       </c>
       <c r="H37" t="n">
-        <v>70.129882813078</v>
+        <v>70.12988281307807</v>
       </c>
       <c r="I37" t="n">
-        <v>41.00730760263663</v>
+        <v>41.0073076026367</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.14097617342081</v>
+        <v>47.14097617342088</v>
       </c>
       <c r="S37" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525618</v>
       </c>
       <c r="T37" t="n">
         <v>140.7202764876419</v>
       </c>
       <c r="U37" t="n">
-        <v>74.17567309512768</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V37" t="n">
         <v>169.4198679309233</v>
@@ -3487,10 +3487,10 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X37" t="n">
-        <v>142.9918799961324</v>
+        <v>13.62384216019618</v>
       </c>
       <c r="Y37" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="38">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.11420478903254</v>
+        <v>77.59041575654517</v>
       </c>
       <c r="C40" t="n">
         <v>84.52904570572308</v>
@@ -3670,7 +3670,7 @@
         <v>63.71618725366442</v>
       </c>
       <c r="F40" t="n">
-        <v>62.70327263002649</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>84.21824836927563</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.14097617342082</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>122.9138237525617</v>
@@ -3721,7 +3721,7 @@
         <v>169.4198679309233</v>
       </c>
       <c r="W40" t="n">
-        <v>74.4371851077521</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X40" t="n">
         <v>142.9918799961324</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>72.70968241949686</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T41" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U41" t="n">
         <v>168.4397301121053</v>
@@ -3901,10 +3901,10 @@
         <v>84.52904570572308</v>
       </c>
       <c r="D43" t="n">
-        <v>65.8976976253076</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>63.71618725366442</v>
+        <v>0.2458470430377417</v>
       </c>
       <c r="F43" t="n">
         <v>62.70327263002649</v>
@@ -3913,10 +3913,10 @@
         <v>84.21824836927563</v>
       </c>
       <c r="H43" t="n">
-        <v>70.12988281307801</v>
+        <v>70.129882813078</v>
       </c>
       <c r="I43" t="n">
-        <v>41.00730760263664</v>
+        <v>41.00730760263663</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>203.5437109310619</v>
       </c>
       <c r="V43" t="n">
-        <v>40.05183009498934</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W43" t="n">
         <v>203.8052229436863</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705759</v>
       </c>
       <c r="C44" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D44" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277783</v>
       </c>
       <c r="E44" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793571</v>
       </c>
       <c r="F44" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488068</v>
       </c>
       <c r="G44" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H44" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I44" t="n">
-        <v>37.08870483417212</v>
+        <v>37.08870483417219</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,16 +4022,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.70968241949637</v>
+        <v>72.70968241949693</v>
       </c>
       <c r="T44" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U44" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121054</v>
       </c>
       <c r="V44" t="n">
         <v>245.0344830772302</v>
@@ -4043,7 +4043,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y44" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>94.16562683678839</v>
+        <v>97.11420478903261</v>
       </c>
       <c r="C46" t="n">
-        <v>84.52904570572308</v>
+        <v>84.52904570572315</v>
       </c>
       <c r="D46" t="n">
-        <v>65.8976976253076</v>
+        <v>65.89769762530767</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.71618725366449</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>62.70327263002656</v>
       </c>
       <c r="G46" t="n">
-        <v>84.21824836927563</v>
+        <v>84.2182483692757</v>
       </c>
       <c r="H46" t="n">
-        <v>70.129882813078</v>
+        <v>70.12988281307807</v>
       </c>
       <c r="I46" t="n">
-        <v>41.00730760263663</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.14097617342081</v>
+        <v>47.14097617342089</v>
       </c>
       <c r="S46" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525618</v>
       </c>
       <c r="T46" t="n">
         <v>140.7202764876419</v>
@@ -4198,10 +4198,10 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X46" t="n">
-        <v>142.9918799961324</v>
+        <v>54.631149762833</v>
       </c>
       <c r="Y46" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.23626279480629</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C2" t="n">
-        <v>72.23626279480629</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D2" t="n">
-        <v>72.23626279480629</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E2" t="n">
-        <v>72.23626279480629</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
         <v>46.80844297864461</v>
@@ -4355,25 +4355,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W2" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X2" t="n">
-        <v>72.23626279480629</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.23626279480629</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>565.0413275456638</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C3" t="n">
-        <v>565.0413275456638</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>416.1069178844125</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>256.869462878957</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4410,19 +4410,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4434,25 +4434,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>814.0039189138263</v>
       </c>
       <c r="T3" t="n">
-        <v>565.0413275456638</v>
+        <v>814.0039189138263</v>
       </c>
       <c r="U3" t="n">
-        <v>565.0413275456638</v>
+        <v>814.0039189138263</v>
       </c>
       <c r="V3" t="n">
-        <v>565.0413275456638</v>
+        <v>814.0039189138263</v>
       </c>
       <c r="W3" t="n">
-        <v>565.0413275456638</v>
+        <v>570.5551422697263</v>
       </c>
       <c r="X3" t="n">
-        <v>565.0413275456638</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="Y3" t="n">
-        <v>565.0413275456638</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
         <v>19.28114311021272</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4592,25 +4592,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X5" t="n">
-        <v>348.0024326625565</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y5" t="n">
-        <v>348.0024326625565</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>616.0293053032528</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>441.5762760221259</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4647,19 +4647,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>399.5118995681682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>156.0631229240681</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>784.2446423233209</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4762,13 +4762,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>348.0024326625565</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>348.0024326625565</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>348.0024326625565</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E8" t="n">
-        <v>348.0024326625565</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>216.6737094609055</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y8" t="n">
-        <v>348.0024326625565</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>649.1947276839472</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C9" t="n">
-        <v>474.7416984028202</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D9" t="n">
-        <v>325.807288741569</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E9" t="n">
-        <v>166.5698337361135</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>27.95154115223485</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>27.95154115223485</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4923,10 +4923,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>856.9550264489012</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>649.1947276839472</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4981,25 +4981,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
         <v>19.28114311021272</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1958.323373197763</v>
+        <v>1763.66644157108</v>
       </c>
       <c r="C11" t="n">
-        <v>1614.567189841721</v>
+        <v>1763.66644157108</v>
       </c>
       <c r="D11" t="n">
-        <v>1281.507824819341</v>
+        <v>1430.6070765487</v>
       </c>
       <c r="E11" t="n">
-        <v>920.9259058054664</v>
+        <v>1070.025157534825</v>
       </c>
       <c r="F11" t="n">
-        <v>535.1463346002288</v>
+        <v>684.2455863295879</v>
       </c>
       <c r="G11" t="n">
-        <v>169.016328748453</v>
+        <v>292.3298037727409</v>
       </c>
       <c r="H11" t="n">
-        <v>169.016328748453</v>
+        <v>169.0163287484529</v>
       </c>
       <c r="I11" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J11" t="n">
-        <v>258.9898176069159</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K11" t="n">
-        <v>658.1763815223496</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L11" t="n">
         <v>1205.679240092234</v>
@@ -5051,40 +5051,40 @@
         <v>1831.488208231171</v>
       </c>
       <c r="N11" t="n">
-        <v>2452.791422191915</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O11" t="n">
-        <v>2994.282791219483</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P11" t="n">
-        <v>3418.758763931392</v>
+        <v>3418.758763931393</v>
       </c>
       <c r="Q11" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R11" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S11" t="n">
-        <v>3528.509683390923</v>
+        <v>3528.509683390924</v>
       </c>
       <c r="T11" t="n">
-        <v>3338.765856504867</v>
+        <v>3338.765856504868</v>
       </c>
       <c r="U11" t="n">
-        <v>3338.765856504867</v>
+        <v>3110.277740084177</v>
       </c>
       <c r="V11" t="n">
-        <v>3032.909302745666</v>
+        <v>2804.421186324976</v>
       </c>
       <c r="W11" t="n">
-        <v>3032.909302745666</v>
+        <v>2476.858864639232</v>
       </c>
       <c r="X11" t="n">
-        <v>2684.649878068956</v>
+        <v>2128.599439962522</v>
       </c>
       <c r="Y11" t="n">
-        <v>2319.716879677514</v>
+        <v>1763.66644157108</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I12" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J12" t="n">
-        <v>190.1641956615502</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K12" t="n">
-        <v>516.6851972600601</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L12" t="n">
-        <v>650.0054335400102</v>
+        <v>650.0054335400104</v>
       </c>
       <c r="M12" t="n">
-        <v>1285.988742254182</v>
+        <v>1285.988742254183</v>
       </c>
       <c r="N12" t="n">
-        <v>1954.511650110078</v>
+        <v>1954.511650110079</v>
       </c>
       <c r="O12" t="n">
-        <v>2109.740129911878</v>
+        <v>2109.740129911879</v>
       </c>
       <c r="P12" t="n">
         <v>2429.521278084463</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>604.7421515339611</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="C13" t="n">
-        <v>461.0123021904241</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="D13" t="n">
-        <v>461.0123021904241</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="E13" t="n">
-        <v>338.3055421924009</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="F13" t="n">
-        <v>216.6219282788605</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="G13" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="H13" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I13" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J13" t="n">
-        <v>79.32466191965284</v>
+        <v>79.32466191965298</v>
       </c>
       <c r="K13" t="n">
-        <v>203.3235852420082</v>
+        <v>203.3235852420084</v>
       </c>
       <c r="L13" t="n">
-        <v>410.6171321895907</v>
+        <v>410.617132189591</v>
       </c>
       <c r="M13" t="n">
-        <v>638.2252920475056</v>
+        <v>638.2252920475061</v>
       </c>
       <c r="N13" t="n">
-        <v>866.4434782183675</v>
+        <v>866.4434782183681</v>
       </c>
       <c r="O13" t="n">
-        <v>1063.109528897733</v>
+        <v>1063.109528897734</v>
       </c>
       <c r="P13" t="n">
         <v>1211.436193392006</v>
       </c>
       <c r="Q13" t="n">
-        <v>1238.29526209475</v>
+        <v>1238.295262094751</v>
       </c>
       <c r="R13" t="n">
-        <v>1238.29526209475</v>
+        <v>1238.295262094751</v>
       </c>
       <c r="S13" t="n">
-        <v>1238.29526209475</v>
+        <v>1238.295262094751</v>
       </c>
       <c r="T13" t="n">
-        <v>1238.29526209475</v>
+        <v>1156.175129114559</v>
       </c>
       <c r="U13" t="n">
-        <v>974.3485791902649</v>
+        <v>892.2284462100738</v>
       </c>
       <c r="V13" t="n">
-        <v>974.3485791902649</v>
+        <v>892.2284462100738</v>
       </c>
       <c r="W13" t="n">
-        <v>974.3485791902649</v>
+        <v>628.0176097574831</v>
       </c>
       <c r="X13" t="n">
-        <v>771.5653618766175</v>
+        <v>425.2343924438357</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.1842827798308</v>
+        <v>229.6481468846756</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2088.740858918195</v>
+        <v>1984.109149902833</v>
       </c>
       <c r="C14" t="n">
-        <v>1744.984675562154</v>
+        <v>1640.352966546792</v>
       </c>
       <c r="D14" t="n">
-        <v>1411.925310539773</v>
+        <v>1307.293601524411</v>
       </c>
       <c r="E14" t="n">
-        <v>1051.343391525899</v>
+        <v>946.7116825105371</v>
       </c>
       <c r="F14" t="n">
-        <v>665.5638203206611</v>
+        <v>560.9321113052996</v>
       </c>
       <c r="G14" t="n">
-        <v>273.6480377638143</v>
+        <v>169.0163287484528</v>
       </c>
       <c r="H14" t="n">
-        <v>73.20601563880585</v>
+        <v>169.0163287484528</v>
       </c>
       <c r="I14" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J14" t="n">
-        <v>258.9898176069162</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K14" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L14" t="n">
-        <v>1205.679240092234</v>
+        <v>1205.679240092235</v>
       </c>
       <c r="M14" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N14" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191917</v>
       </c>
       <c r="O14" t="n">
-        <v>2994.282791219483</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P14" t="n">
-        <v>3418.758763931392</v>
+        <v>3418.758763931393</v>
       </c>
       <c r="Q14" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R14" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S14" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="T14" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="U14" t="n">
         <v>3431.812665519602</v>
       </c>
       <c r="V14" t="n">
-        <v>3125.956111760401</v>
+        <v>3125.956111760402</v>
       </c>
       <c r="W14" t="n">
-        <v>2798.393790074657</v>
+        <v>3058.695079450737</v>
       </c>
       <c r="X14" t="n">
-        <v>2450.134365397947</v>
+        <v>2710.435654774027</v>
       </c>
       <c r="Y14" t="n">
-        <v>2450.134365397947</v>
+        <v>2345.502656382585</v>
       </c>
     </row>
     <row r="15">
@@ -5352,19 +5352,19 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I15" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J15" t="n">
-        <v>190.1641956615502</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K15" t="n">
-        <v>516.6851972600601</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L15" t="n">
-        <v>1017.137375390435</v>
+        <v>271.2266688748132</v>
       </c>
       <c r="M15" t="n">
-        <v>1269.865530007199</v>
+        <v>795.3165794070809</v>
       </c>
       <c r="N15" t="n">
         <v>1463.839487262977</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.20601563880585</v>
+        <v>227.4566238641036</v>
       </c>
       <c r="C16" t="n">
-        <v>73.20601563880585</v>
+        <v>195.9127756368289</v>
       </c>
       <c r="D16" t="n">
-        <v>73.20601563880585</v>
+        <v>195.9127756368289</v>
       </c>
       <c r="E16" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="F16" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="G16" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="H16" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I16" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J16" t="n">
-        <v>79.32466191965293</v>
+        <v>79.32466191965302</v>
       </c>
       <c r="K16" t="n">
-        <v>203.3235852420083</v>
+        <v>203.3235852420085</v>
       </c>
       <c r="L16" t="n">
-        <v>410.6171321895908</v>
+        <v>410.6171321895911</v>
       </c>
       <c r="M16" t="n">
-        <v>638.2252920475057</v>
+        <v>638.2252920475062</v>
       </c>
       <c r="N16" t="n">
-        <v>866.4434782183678</v>
+        <v>866.4434782183683</v>
       </c>
       <c r="O16" t="n">
-        <v>1063.109528897733</v>
+        <v>1063.109528897734</v>
       </c>
       <c r="P16" t="n">
-        <v>1211.436193392006</v>
+        <v>1211.436193392007</v>
       </c>
       <c r="Q16" t="n">
-        <v>1238.29526209475</v>
+        <v>1238.295262094751</v>
       </c>
       <c r="R16" t="n">
-        <v>1132.331139551519</v>
+        <v>1238.295262094751</v>
       </c>
       <c r="S16" t="n">
-        <v>949.8287871303669</v>
+        <v>1055.7929096736</v>
       </c>
       <c r="T16" t="n">
-        <v>749.340118815195</v>
+        <v>855.3042413584277</v>
       </c>
       <c r="U16" t="n">
-        <v>749.340118815195</v>
+        <v>855.3042413584277</v>
       </c>
       <c r="V16" t="n">
-        <v>519.8619641936781</v>
+        <v>625.8260867369108</v>
       </c>
       <c r="W16" t="n">
-        <v>519.8619641936781</v>
+        <v>625.8260867369108</v>
       </c>
       <c r="X16" t="n">
-        <v>317.0787468800307</v>
+        <v>423.0428694232636</v>
       </c>
       <c r="Y16" t="n">
-        <v>229.6481468846756</v>
+        <v>227.4566238641036</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C17" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D17" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E17" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525459</v>
       </c>
       <c r="F17" t="n">
-        <v>679.2595952135343</v>
+        <v>679.2595952135334</v>
       </c>
       <c r="G17" t="n">
-        <v>345.6907875499992</v>
+        <v>345.6907875499983</v>
       </c>
       <c r="H17" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I17" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J17" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K17" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223501</v>
       </c>
       <c r="L17" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M17" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N17" t="n">
         <v>2452.791422191916</v>
@@ -5543,22 +5543,22 @@
         <v>3586.856658284235</v>
       </c>
       <c r="T17" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.45980629149</v>
       </c>
       <c r="U17" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V17" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W17" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X17" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y17" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5580,34 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2965326142068</v>
+        <v>358.2965326142067</v>
       </c>
       <c r="G18" t="n">
-        <v>220.836764461843</v>
+        <v>220.8367644618429</v>
       </c>
       <c r="H18" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I18" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J18" t="n">
-        <v>190.1641956615502</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K18" t="n">
-        <v>516.6851972600601</v>
+        <v>399.7270172373159</v>
       </c>
       <c r="L18" t="n">
-        <v>1017.137375390435</v>
+        <v>900.1791953676907</v>
       </c>
       <c r="M18" t="n">
-        <v>1269.865530007199</v>
+        <v>1536.162504081863</v>
       </c>
       <c r="N18" t="n">
-        <v>1463.839487262977</v>
+        <v>1730.136461337641</v>
       </c>
       <c r="O18" t="n">
-        <v>2008.991663148739</v>
+        <v>2275.288637223403</v>
       </c>
       <c r="P18" t="n">
         <v>2429.521278084463</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>419.502585501208</v>
+        <v>483.6140402594162</v>
       </c>
       <c r="C19" t="n">
-        <v>334.1197110509827</v>
+        <v>398.2311658091909</v>
       </c>
       <c r="D19" t="n">
-        <v>333.8713807044792</v>
+        <v>398.2311658091909</v>
       </c>
       <c r="E19" t="n">
-        <v>333.8713807044792</v>
+        <v>333.8713807044794</v>
       </c>
       <c r="F19" t="n">
-        <v>270.5347416842504</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="G19" t="n">
-        <v>185.4658039375074</v>
+        <v>185.4658039375076</v>
       </c>
       <c r="H19" t="n">
         <v>114.6275384697519</v>
       </c>
       <c r="I19" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J19" t="n">
         <v>136.5105320125877</v>
       </c>
       <c r="K19" t="n">
-        <v>317.6953254278776</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L19" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683952</v>
       </c>
       <c r="M19" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192449</v>
       </c>
       <c r="N19" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O19" t="n">
         <v>1406.224749455342</v>
       </c>
       <c r="P19" t="n">
-        <v>1611.737284042549</v>
+        <v>1611.73728404255</v>
       </c>
       <c r="Q19" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R19" t="n">
-        <v>1648.165075188308</v>
+        <v>1648.165075188309</v>
       </c>
       <c r="S19" t="n">
-        <v>1524.009697660468</v>
+        <v>1588.121152418677</v>
       </c>
       <c r="T19" t="n">
-        <v>1381.868004238608</v>
+        <v>1445.979458996817</v>
       </c>
       <c r="U19" t="n">
-        <v>1176.268296227434</v>
+        <v>1240.379750985643</v>
       </c>
       <c r="V19" t="n">
-        <v>1005.137116499229</v>
+        <v>1069.248571257438</v>
       </c>
       <c r="W19" t="n">
-        <v>799.27325493995</v>
+        <v>863.384709698159</v>
       </c>
       <c r="X19" t="n">
-        <v>654.8370125196143</v>
+        <v>718.9484672778233</v>
       </c>
       <c r="Y19" t="n">
-        <v>517.5977418537661</v>
+        <v>581.7091966119743</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C20" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D20" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E20" t="n">
-        <v>1006.692191525459</v>
+        <v>1006.692191525461</v>
       </c>
       <c r="F20" t="n">
-        <v>679.2595952135334</v>
+        <v>679.2595952135348</v>
       </c>
       <c r="G20" t="n">
-        <v>345.6907875499983</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H20" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I20" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J20" t="n">
-        <v>258.9898176069175</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K20" t="n">
-        <v>658.1763815223511</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L20" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M20" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N20" t="n">
-        <v>2452.791422191917</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O20" t="n">
         <v>2994.282791219484</v>
@@ -5777,25 +5777,25 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S20" t="n">
-        <v>3586.856658284235</v>
+        <v>3586.856658284236</v>
       </c>
       <c r="T20" t="n">
-        <v>3455.45980629149</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U20" t="n">
-        <v>3285.318664764111</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V20" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W20" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X20" t="n">
-        <v>2478.681289322391</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y20" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I21" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J21" t="n">
-        <v>190.1641956615502</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K21" t="n">
-        <v>516.6851972600601</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L21" t="n">
-        <v>1017.137375390435</v>
+        <v>638.3586107252377</v>
       </c>
       <c r="M21" t="n">
-        <v>1269.865530007199</v>
+        <v>1274.34191943941</v>
       </c>
       <c r="N21" t="n">
-        <v>1463.839487262977</v>
+        <v>1468.315876695188</v>
       </c>
       <c r="O21" t="n">
-        <v>2008.991663148739</v>
+        <v>2013.46805258095</v>
       </c>
       <c r="P21" t="n">
-        <v>2429.521278084463</v>
+        <v>2433.997667516674</v>
       </c>
       <c r="Q21" t="n">
         <v>2657.936419551312</v>
@@ -5905,52 +5905,52 @@
         <v>114.6275384697519</v>
       </c>
       <c r="I22" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J22" t="n">
         <v>136.5105320125877</v>
       </c>
       <c r="K22" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L22" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683952</v>
       </c>
       <c r="M22" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192449</v>
       </c>
       <c r="N22" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O22" t="n">
         <v>1406.224749455342</v>
       </c>
       <c r="P22" t="n">
-        <v>1611.737284042549</v>
+        <v>1611.73728404255</v>
       </c>
       <c r="Q22" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R22" t="n">
-        <v>1648.165075188308</v>
+        <v>1648.165075188309</v>
       </c>
       <c r="S22" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660469</v>
       </c>
       <c r="T22" t="n">
         <v>1381.868004238608</v>
       </c>
       <c r="U22" t="n">
-        <v>1306.943081920297</v>
+        <v>1176.268296227435</v>
       </c>
       <c r="V22" t="n">
-        <v>1135.811902192091</v>
+        <v>1005.13711649923</v>
       </c>
       <c r="W22" t="n">
-        <v>929.9480406328124</v>
+        <v>799.2732549399507</v>
       </c>
       <c r="X22" t="n">
-        <v>785.5117982124767</v>
+        <v>654.837012519615</v>
       </c>
       <c r="Y22" t="n">
         <v>648.2725275466281</v>
@@ -5975,7 +5975,7 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F23" t="n">
-        <v>679.259595213534</v>
+        <v>679.2595952135341</v>
       </c>
       <c r="G23" t="n">
         <v>345.6907875499988</v>
@@ -5984,7 +5984,7 @@
         <v>110.6693538551413</v>
       </c>
       <c r="I23" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J23" t="n">
         <v>258.9898176069163</v>
@@ -6005,7 +6005,7 @@
         <v>2994.282791219484</v>
       </c>
       <c r="P23" t="n">
-        <v>3418.758763931392</v>
+        <v>3418.758763931393</v>
       </c>
       <c r="Q23" t="n">
         <v>3660.300781940293</v>
@@ -6054,16 +6054,16 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G24" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H24" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I24" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J24" t="n">
         <v>190.1641956615503</v>
@@ -6072,16 +6072,16 @@
         <v>516.6851972600602</v>
       </c>
       <c r="L24" t="n">
-        <v>1017.137375390435</v>
+        <v>650.0054335400104</v>
       </c>
       <c r="M24" t="n">
-        <v>1269.865530007199</v>
+        <v>1285.988742254183</v>
       </c>
       <c r="N24" t="n">
-        <v>1463.839487262977</v>
+        <v>1954.511650110079</v>
       </c>
       <c r="O24" t="n">
-        <v>2008.991663148739</v>
+        <v>2109.740129911879</v>
       </c>
       <c r="P24" t="n">
         <v>2429.521278084463</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>517.5977418537658</v>
+        <v>419.5025855012077</v>
       </c>
       <c r="C25" t="n">
-        <v>432.2148674035408</v>
+        <v>334.1197110509823</v>
       </c>
       <c r="D25" t="n">
-        <v>365.6515364688867</v>
+        <v>334.1197110509823</v>
       </c>
       <c r="E25" t="n">
-        <v>333.8713807044793</v>
+        <v>269.7599259462708</v>
       </c>
       <c r="F25" t="n">
-        <v>270.5347416842504</v>
+        <v>269.7599259462708</v>
       </c>
       <c r="G25" t="n">
-        <v>185.4658039375074</v>
+        <v>184.6909881995277</v>
       </c>
       <c r="H25" t="n">
-        <v>114.6275384697519</v>
+        <v>113.852722731772</v>
       </c>
       <c r="I25" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J25" t="n">
         <v>136.5105320125877</v>
       </c>
       <c r="K25" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L25" t="n">
-        <v>582.1747424683952</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M25" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192449</v>
       </c>
       <c r="N25" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O25" t="n">
         <v>1406.224749455342</v>
@@ -6178,16 +6178,16 @@
         <v>1381.868004238608</v>
       </c>
       <c r="U25" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227435</v>
       </c>
       <c r="V25" t="n">
         <v>1005.137116499229</v>
       </c>
       <c r="W25" t="n">
-        <v>799.27325493995</v>
+        <v>799.2732549399502</v>
       </c>
       <c r="X25" t="n">
-        <v>654.8370125196143</v>
+        <v>654.8370125196145</v>
       </c>
       <c r="Y25" t="n">
         <v>517.5977418537658</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C26" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D26" t="n">
         <v>1308.927135646023</v>
@@ -6212,10 +6212,10 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F26" t="n">
-        <v>679.2595952135343</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G26" t="n">
-        <v>345.6907875499989</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H26" t="n">
         <v>110.6693538551413</v>
@@ -6227,7 +6227,7 @@
         <v>258.9898176069164</v>
       </c>
       <c r="K26" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L26" t="n">
         <v>1205.679240092235</v>
@@ -6251,7 +6251,7 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S26" t="n">
-        <v>3586.856658284236</v>
+        <v>3586.856658284235</v>
       </c>
       <c r="T26" t="n">
         <v>3455.459806291491</v>
@@ -6263,7 +6263,7 @@
         <v>3037.809085898223</v>
       </c>
       <c r="W26" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X26" t="n">
         <v>2478.681289322392</v>
@@ -6306,10 +6306,10 @@
         <v>190.1641956615503</v>
       </c>
       <c r="K27" t="n">
-        <v>516.6851972600602</v>
+        <v>254.8646126176074</v>
       </c>
       <c r="L27" t="n">
-        <v>1017.137375390435</v>
+        <v>755.3167907479822</v>
       </c>
       <c r="M27" t="n">
         <v>1269.865530007199</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>550.1773711940704</v>
+        <v>485.8175860893585</v>
       </c>
       <c r="C28" t="n">
-        <v>464.794496743845</v>
+        <v>400.4347116391332</v>
       </c>
       <c r="D28" t="n">
-        <v>398.2311658091909</v>
+        <v>333.8713807044793</v>
       </c>
       <c r="E28" t="n">
         <v>333.8713807044793</v>
@@ -6382,16 +6382,16 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K28" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L28" t="n">
         <v>582.1747424683949</v>
       </c>
       <c r="M28" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192446</v>
       </c>
       <c r="N28" t="n">
         <v>1152.372828683041</v>
@@ -6421,13 +6421,13 @@
         <v>1005.137116499229</v>
       </c>
       <c r="W28" t="n">
-        <v>929.9480406328128</v>
+        <v>799.2732549399498</v>
       </c>
       <c r="X28" t="n">
-        <v>785.5117982124771</v>
+        <v>654.8370125196141</v>
       </c>
       <c r="Y28" t="n">
-        <v>648.2725275466285</v>
+        <v>517.5977418537655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C29" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D29" t="n">
         <v>1308.927135646023</v>
@@ -6449,10 +6449,10 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F29" t="n">
-        <v>679.2595952135341</v>
+        <v>679.2595952135343</v>
       </c>
       <c r="G29" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499992</v>
       </c>
       <c r="H29" t="n">
         <v>110.6693538551413</v>
@@ -6500,7 +6500,7 @@
         <v>3037.809085898223</v>
       </c>
       <c r="W29" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X29" t="n">
         <v>2478.681289322392</v>
@@ -6546,16 +6546,16 @@
         <v>516.6851972600602</v>
       </c>
       <c r="L30" t="n">
-        <v>1017.137375390435</v>
+        <v>650.0054335400104</v>
       </c>
       <c r="M30" t="n">
-        <v>1269.865530007199</v>
+        <v>1285.988742254183</v>
       </c>
       <c r="N30" t="n">
-        <v>1463.839487262977</v>
+        <v>1954.511650110079</v>
       </c>
       <c r="O30" t="n">
-        <v>2008.991663148739</v>
+        <v>2109.740129911879</v>
       </c>
       <c r="P30" t="n">
         <v>2429.521278084463</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>419.5025855012076</v>
+        <v>517.5977418537656</v>
       </c>
       <c r="C31" t="n">
-        <v>334.1197110509822</v>
+        <v>432.2148674035403</v>
       </c>
       <c r="D31" t="n">
-        <v>267.5563801163281</v>
+        <v>365.6515364688862</v>
       </c>
       <c r="E31" t="n">
-        <v>267.5563801163281</v>
+        <v>333.871380704479</v>
       </c>
       <c r="F31" t="n">
-        <v>204.2197410960993</v>
+        <v>270.5347416842505</v>
       </c>
       <c r="G31" t="n">
-        <v>185.4658039375075</v>
+        <v>185.4658039375074</v>
       </c>
       <c r="H31" t="n">
-        <v>114.627538469752</v>
+        <v>114.6275384697519</v>
       </c>
       <c r="I31" t="n">
         <v>73.20601563880587</v>
@@ -6622,16 +6622,16 @@
         <v>136.5105320125876</v>
       </c>
       <c r="K31" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L31" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683952</v>
       </c>
       <c r="M31" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192449</v>
       </c>
       <c r="N31" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O31" t="n">
         <v>1406.224749455342</v>
@@ -6640,7 +6640,7 @@
         <v>1611.737284042549</v>
       </c>
       <c r="Q31" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R31" t="n">
         <v>1648.165075188308</v>
@@ -6661,10 +6661,10 @@
         <v>799.2732549399498</v>
       </c>
       <c r="X31" t="n">
-        <v>654.8370125196139</v>
+        <v>654.8370125196141</v>
       </c>
       <c r="Y31" t="n">
-        <v>517.5977418537657</v>
+        <v>517.5977418537656</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>1583.639525775091</v>
       </c>
       <c r="D32" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E32" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F32" t="n">
-        <v>679.2595952135341</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G32" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H32" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I32" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J32" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K32" t="n">
-        <v>658.17638152235</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L32" t="n">
         <v>1205.679240092235</v>
@@ -6731,7 +6731,7 @@
         <v>3455.459806291491</v>
       </c>
       <c r="U32" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V32" t="n">
         <v>3037.809085898222</v>
@@ -6783,16 +6783,16 @@
         <v>516.6851972600602</v>
       </c>
       <c r="L33" t="n">
-        <v>1017.137375390435</v>
+        <v>650.0054335400104</v>
       </c>
       <c r="M33" t="n">
-        <v>1269.865530007199</v>
+        <v>1285.988742254183</v>
       </c>
       <c r="N33" t="n">
-        <v>1463.839487262977</v>
+        <v>1954.511650110079</v>
       </c>
       <c r="O33" t="n">
-        <v>2008.991663148739</v>
+        <v>2109.740129911879</v>
       </c>
       <c r="P33" t="n">
         <v>2429.521278084463</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>485.8175860893588</v>
+        <v>419.5025855012078</v>
       </c>
       <c r="C34" t="n">
-        <v>400.4347116391335</v>
+        <v>334.1197110509825</v>
       </c>
       <c r="D34" t="n">
-        <v>333.8713807044793</v>
+        <v>334.1197110509825</v>
       </c>
       <c r="E34" t="n">
         <v>333.8713807044793</v>
@@ -6856,7 +6856,7 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K34" t="n">
         <v>317.6953254278777</v>
@@ -6865,7 +6865,7 @@
         <v>582.1747424683949</v>
       </c>
       <c r="M34" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192446</v>
       </c>
       <c r="N34" t="n">
         <v>1152.372828683041</v>
@@ -6898,10 +6898,10 @@
         <v>799.27325493995</v>
       </c>
       <c r="X34" t="n">
-        <v>654.8370125196142</v>
+        <v>654.8370125196141</v>
       </c>
       <c r="Y34" t="n">
-        <v>517.5977418537664</v>
+        <v>517.5977418537659</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C35" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D35" t="n">
         <v>1308.927135646023</v>
@@ -6923,7 +6923,7 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F35" t="n">
-        <v>679.2595952135341</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G35" t="n">
         <v>345.6907875499988</v>
@@ -6935,10 +6935,10 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J35" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K35" t="n">
-        <v>658.17638152235</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L35" t="n">
         <v>1205.679240092235</v>
@@ -6974,7 +6974,7 @@
         <v>3037.809085898223</v>
       </c>
       <c r="W35" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X35" t="n">
         <v>2478.681289322392</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>550.1773711940705</v>
+        <v>550.1773711940709</v>
       </c>
       <c r="C37" t="n">
-        <v>464.7944967438451</v>
+        <v>464.7944967438455</v>
       </c>
       <c r="D37" t="n">
-        <v>398.2311658091909</v>
+        <v>398.2311658091912</v>
       </c>
       <c r="E37" t="n">
-        <v>333.8713807044794</v>
+        <v>333.8713807044796</v>
       </c>
       <c r="F37" t="n">
-        <v>270.5347416842506</v>
+        <v>270.5347416842508</v>
       </c>
       <c r="G37" t="n">
-        <v>185.4658039375075</v>
+        <v>185.4658039375076</v>
       </c>
       <c r="H37" t="n">
         <v>114.627538469752</v>
@@ -7093,52 +7093,52 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5105320125875</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K37" t="n">
-        <v>317.6953254278776</v>
+        <v>317.6953254278775</v>
       </c>
       <c r="L37" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683947</v>
       </c>
       <c r="M37" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192443</v>
       </c>
       <c r="N37" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O37" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P37" t="n">
-        <v>1611.737284042549</v>
+        <v>1611.737284042548</v>
       </c>
       <c r="Q37" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838227</v>
       </c>
       <c r="R37" t="n">
-        <v>1648.165075188308</v>
+        <v>1648.165075188307</v>
       </c>
       <c r="S37" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660467</v>
       </c>
       <c r="T37" t="n">
-        <v>1381.868004238608</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U37" t="n">
-        <v>1306.943081920297</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V37" t="n">
-        <v>1135.811902192092</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W37" t="n">
-        <v>929.9480406328125</v>
+        <v>799.2732549399486</v>
       </c>
       <c r="X37" t="n">
-        <v>785.5117982124768</v>
+        <v>785.5117982124777</v>
       </c>
       <c r="Y37" t="n">
-        <v>648.2725275466286</v>
+        <v>648.2725275466291</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C38" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D38" t="n">
         <v>1308.927135646023</v>
@@ -7160,10 +7160,10 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F38" t="n">
-        <v>679.2595952135343</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G38" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H38" t="n">
         <v>110.6693538551413</v>
@@ -7211,7 +7211,7 @@
         <v>3037.809085898223</v>
       </c>
       <c r="W38" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X38" t="n">
         <v>2478.681289322392</v>
@@ -7251,25 +7251,25 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J39" t="n">
-        <v>190.1641956615503</v>
+        <v>117.4353314185053</v>
       </c>
       <c r="K39" t="n">
-        <v>516.6851972600602</v>
+        <v>182.1357483745625</v>
       </c>
       <c r="L39" t="n">
-        <v>1017.137375390435</v>
+        <v>682.5879265049372</v>
       </c>
       <c r="M39" t="n">
-        <v>1269.865530007199</v>
+        <v>1318.571235219109</v>
       </c>
       <c r="N39" t="n">
-        <v>1463.839487262977</v>
+        <v>1987.094143075005</v>
       </c>
       <c r="O39" t="n">
-        <v>2008.991663148739</v>
+        <v>2532.246318960767</v>
       </c>
       <c r="P39" t="n">
-        <v>2429.521278084463</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q39" t="n">
         <v>2657.936419551312</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>550.1773711940705</v>
+        <v>486.8407321738416</v>
       </c>
       <c r="C40" t="n">
-        <v>464.7944967438451</v>
+        <v>401.4578577236163</v>
       </c>
       <c r="D40" t="n">
-        <v>398.2311658091909</v>
+        <v>334.8945267889621</v>
       </c>
       <c r="E40" t="n">
-        <v>333.8713807044794</v>
+        <v>270.5347416842505</v>
       </c>
       <c r="F40" t="n">
-        <v>270.5347416842506</v>
+        <v>270.5347416842505</v>
       </c>
       <c r="G40" t="n">
         <v>185.4658039375075</v>
       </c>
       <c r="H40" t="n">
-        <v>114.627538469752</v>
+        <v>114.6275384697519</v>
       </c>
       <c r="I40" t="n">
         <v>73.20601563880587</v>
@@ -7345,7 +7345,7 @@
         <v>1152.372828683041</v>
       </c>
       <c r="O40" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P40" t="n">
         <v>1611.737284042549</v>
@@ -7354,28 +7354,28 @@
         <v>1695.782222838228</v>
       </c>
       <c r="R40" t="n">
-        <v>1648.165075188308</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="S40" t="n">
-        <v>1524.009697660468</v>
+        <v>1571.626845310388</v>
       </c>
       <c r="T40" t="n">
-        <v>1381.868004238607</v>
+        <v>1429.485151888528</v>
       </c>
       <c r="U40" t="n">
-        <v>1176.268296227434</v>
+        <v>1223.885443877354</v>
       </c>
       <c r="V40" t="n">
-        <v>1005.137116499229</v>
+        <v>1052.754264149149</v>
       </c>
       <c r="W40" t="n">
-        <v>929.9480406328128</v>
+        <v>846.8904025898698</v>
       </c>
       <c r="X40" t="n">
-        <v>785.5117982124769</v>
+        <v>702.4541601695339</v>
       </c>
       <c r="Y40" t="n">
-        <v>648.2725275466286</v>
+        <v>565.2148895036852</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>679.2595952135341</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499989</v>
       </c>
       <c r="H41" t="n">
         <v>110.6693538551413</v>
@@ -7409,10 +7409,10 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J41" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K41" t="n">
-        <v>658.17638152235</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L41" t="n">
         <v>1205.679240092235</v>
@@ -7436,7 +7436,7 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S41" t="n">
-        <v>3586.856658284235</v>
+        <v>3586.856658284236</v>
       </c>
       <c r="T41" t="n">
         <v>3455.459806291491</v>
@@ -7494,10 +7494,10 @@
         <v>516.6851972600602</v>
       </c>
       <c r="L42" t="n">
-        <v>1017.137375390435</v>
+        <v>650.0054335400104</v>
       </c>
       <c r="M42" t="n">
-        <v>1269.865530007199</v>
+        <v>824.9407291416827</v>
       </c>
       <c r="N42" t="n">
         <v>1463.839487262977</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>550.1773711940704</v>
+        <v>419.5025855012075</v>
       </c>
       <c r="C43" t="n">
-        <v>464.794496743845</v>
+        <v>334.1197110509822</v>
       </c>
       <c r="D43" t="n">
-        <v>398.2311658091909</v>
+        <v>334.1197110509822</v>
       </c>
       <c r="E43" t="n">
-        <v>333.8713807044793</v>
+        <v>333.8713807044794</v>
       </c>
       <c r="F43" t="n">
-        <v>270.5347416842505</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="G43" t="n">
         <v>185.4658039375075</v>
@@ -7570,13 +7570,13 @@
         <v>136.5105320125877</v>
       </c>
       <c r="K43" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278776</v>
       </c>
       <c r="L43" t="n">
         <v>582.1747424683949</v>
       </c>
       <c r="M43" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N43" t="n">
         <v>1152.372828683041</v>
@@ -7603,16 +7603,16 @@
         <v>1176.268296227434</v>
       </c>
       <c r="V43" t="n">
-        <v>1135.811902192092</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W43" t="n">
-        <v>929.9480406328129</v>
+        <v>799.27325493995</v>
       </c>
       <c r="X43" t="n">
-        <v>785.5117982124771</v>
+        <v>654.8370125196143</v>
       </c>
       <c r="Y43" t="n">
-        <v>648.2725275466285</v>
+        <v>517.5977418537656</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F44" t="n">
-        <v>679.2595952135339</v>
+        <v>679.2595952135335</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499983</v>
       </c>
       <c r="H44" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I44" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J44" t="n">
-        <v>258.9898176069162</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K44" t="n">
-        <v>658.1763815223499</v>
+        <v>658.17638152235</v>
       </c>
       <c r="L44" t="n">
         <v>1205.679240092235</v>
@@ -7667,7 +7667,7 @@
         <v>3418.758763931393</v>
       </c>
       <c r="Q44" t="n">
-        <v>3660.300781940294</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R44" t="n">
         <v>3660.300781940293</v>
@@ -7713,16 +7713,16 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2965326142067</v>
+        <v>358.2965326142068</v>
       </c>
       <c r="G45" t="n">
-        <v>220.8367644618429</v>
+        <v>220.836764461843</v>
       </c>
       <c r="H45" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I45" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J45" t="n">
         <v>190.1641956615503</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>422.48094706913</v>
+        <v>508.7558483631247</v>
       </c>
       <c r="C46" t="n">
-        <v>337.0980726189047</v>
+        <v>423.3729739128993</v>
       </c>
       <c r="D46" t="n">
-        <v>270.5347416842505</v>
+        <v>356.8096429782451</v>
       </c>
       <c r="E46" t="n">
-        <v>270.5347416842505</v>
+        <v>292.4498578735335</v>
       </c>
       <c r="F46" t="n">
-        <v>270.5347416842505</v>
+        <v>229.1132188533046</v>
       </c>
       <c r="G46" t="n">
-        <v>185.4658039375075</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="H46" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I46" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J46" t="n">
         <v>136.5105320125876</v>
       </c>
       <c r="K46" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278776</v>
       </c>
       <c r="L46" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683948</v>
       </c>
       <c r="M46" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192443</v>
       </c>
       <c r="N46" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O46" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P46" t="n">
         <v>1611.737284042549</v>
@@ -7828,28 +7828,28 @@
         <v>1695.782222838228</v>
       </c>
       <c r="R46" t="n">
-        <v>1648.165075188308</v>
+        <v>1648.165075188307</v>
       </c>
       <c r="S46" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660467</v>
       </c>
       <c r="T46" t="n">
         <v>1381.868004238607</v>
       </c>
       <c r="U46" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V46" t="n">
-        <v>1005.137116499229</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W46" t="n">
-        <v>799.2732549399495</v>
+        <v>799.2732549399487</v>
       </c>
       <c r="X46" t="n">
-        <v>654.8370125196138</v>
+        <v>744.0902753815316</v>
       </c>
       <c r="Y46" t="n">
-        <v>517.5977418537648</v>
+        <v>606.8510047156828</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>174.6270615612551</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>216.6966405963622</v>
+        <v>216.6966405963616</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>78.57864546978979</v>
+        <v>352.6814292228236</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,7 +9249,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>78.57864546978979</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>49.47592614027607</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.096615172075</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858932</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>78.57864546978979</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>205.5556822487674</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,19 +9720,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>78.57864546978951</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>216.6966405963616</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>78.57864546978951</v>
+        <v>343.0438824823681</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10194,19 +10194,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>78.57864546978951</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>216.6966405963616</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10431,19 +10431,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>78.57864546978951</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>216.6966405963616</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>52.62753610500989</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>78.57864546978951</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,13 +11142,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>78.57864546978951</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>449.4189907732488</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>357.7795714149543</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>340.3186215224812</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>25.52791893802066</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>290.4347245022875</v>
+        <v>168.3543842282423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>226.2032352564838</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>324.2866984688868</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>142.2925508501015</v>
       </c>
       <c r="D13" t="n">
         <v>123.6612027696861</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>121.4796923980429</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>120.466777774405</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>141.9817535136541</v>
       </c>
       <c r="H13" t="n">
         <v>127.8933879574565</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77081274701514</v>
+        <v>98.7708127470151</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>180.6773288969402</v>
       </c>
       <c r="T13" t="n">
-        <v>198.4837816320204</v>
+        <v>117.1848499816303</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>227.1833730753017</v>
       </c>
       <c r="W13" t="n">
-        <v>261.5687280880647</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>183.3531147977491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>91.99712259852913</v>
+        <v>290.4347245022873</v>
       </c>
       <c r="I14" t="n">
-        <v>94.85220997855063</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.4731875638754</v>
+        <v>130.4731875638753</v>
       </c>
       <c r="T14" t="n">
-        <v>187.8463886171959</v>
+        <v>187.8463886171958</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>257.6982764823181</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>361.2836684075273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>154.877709933411</v>
       </c>
       <c r="C16" t="n">
-        <v>142.2925508501016</v>
+        <v>111.0641411050995</v>
       </c>
       <c r="D16" t="n">
-        <v>123.6612027696861</v>
+        <v>123.661202769686</v>
       </c>
       <c r="E16" t="n">
-        <v>121.4796923980429</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>120.466777774405</v>
+        <v>120.4667777744049</v>
       </c>
       <c r="G16" t="n">
-        <v>141.9817535136541</v>
+        <v>141.981753513654</v>
       </c>
       <c r="H16" t="n">
-        <v>127.8933879574565</v>
+        <v>127.8933879574564</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77081274701514</v>
+        <v>98.77081274701504</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>104.9044813177992</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>261.3072160754404</v>
+        <v>261.3072160754402</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>261.5687280880647</v>
+        <v>261.5687280880646</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>107.074089108167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.65185058226911</v>
+        <v>65.89769762530757</v>
       </c>
       <c r="E19" t="n">
-        <v>63.71618725366439</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>63.47034021062655</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>129.3680378359334</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>129.3680378359327</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.11420478903251</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E25" t="n">
-        <v>32.25383304690106</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.7670675806001412</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>65.65185058226966</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>63.71618725366442</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>129.3680378359339</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>97.11420478903253</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>63.71618725366442</v>
+        <v>32.25383304690122</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>65.65185058226982</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.65185058226899</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E34" t="n">
-        <v>63.71618725366442</v>
+        <v>63.47034021062623</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>129.3680378359342</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>129.3680378359363</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>19.52378903248738</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>62.70327263002649</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>47.14097617342082</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>129.3680378359342</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>65.8976976253076</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>63.47034021062667</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>129.3680378359339</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>4.689582056016661e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.94857795224415</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>63.71618725366442</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>62.70327263002649</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.00730760263671</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>88.36073023329948</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>766078.3598801047</v>
+        <v>766078.3598801048</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>766078.3598801048</v>
+        <v>766078.3598801049</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>870649.5787178264</v>
+        <v>870649.5787178263</v>
       </c>
     </row>
     <row r="8">
@@ -26314,43 +26314,43 @@
         <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
-        <v>519039.2708470662</v>
+        <v>519039.2708470661</v>
       </c>
       <c r="F2" t="n">
-        <v>519039.2708470662</v>
+        <v>519039.2708470663</v>
       </c>
       <c r="G2" t="n">
+        <v>593004.2792932607</v>
+      </c>
+      <c r="H2" t="n">
+        <v>593004.2792932605</v>
+      </c>
+      <c r="I2" t="n">
         <v>593004.2792932609</v>
-      </c>
-      <c r="H2" t="n">
-        <v>593004.2792932604</v>
-      </c>
-      <c r="I2" t="n">
-        <v>593004.2792932605</v>
       </c>
       <c r="J2" t="n">
         <v>593004.2792932608</v>
       </c>
       <c r="K2" t="n">
+        <v>593004.2792932609</v>
+      </c>
+      <c r="L2" t="n">
+        <v>593004.279293261</v>
+      </c>
+      <c r="M2" t="n">
         <v>593004.2792932608</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>593004.2792932607</v>
+      </c>
+      <c r="O2" t="n">
         <v>593004.2792932609</v>
-      </c>
-      <c r="M2" t="n">
-        <v>593004.2792932605</v>
-      </c>
-      <c r="N2" t="n">
-        <v>593004.2792932605</v>
-      </c>
-      <c r="O2" t="n">
-        <v>593004.2792932607</v>
       </c>
       <c r="P2" t="n">
         <v>593004.2792932608</v>
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691230.6639893663</v>
+        <v>691230.6639893664</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>46210.80411550282</v>
+        <v>46210.80411550275</v>
       </c>
       <c r="H3" t="n">
-        <v>4.191285599554248e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>83023.35879792727</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>46210.80411550282</v>
+        <v>46210.80411550274</v>
       </c>
       <c r="M3" t="n">
         <v>167978.674170194</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19963.41619882098</v>
+        <v>19963.41619882103</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>312595.3744187171</v>
       </c>
       <c r="C4" t="n">
-        <v>312595.3744187172</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="D4" t="n">
-        <v>312595.3744187172</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="E4" t="n">
-        <v>58212.51237564201</v>
+        <v>58212.51237564204</v>
       </c>
       <c r="F4" t="n">
-        <v>58212.512375642</v>
+        <v>58212.51237564209</v>
       </c>
       <c r="G4" t="n">
-        <v>116585.1754884331</v>
+        <v>116585.175488433</v>
       </c>
       <c r="H4" t="n">
         <v>116585.1754884331</v>
       </c>
       <c r="I4" t="n">
-        <v>116585.1754884331</v>
+        <v>116585.175488433</v>
       </c>
       <c r="J4" t="n">
-        <v>116585.1754884331</v>
+        <v>116585.175488433</v>
       </c>
       <c r="K4" t="n">
         <v>116585.175488433</v>
       </c>
       <c r="L4" t="n">
-        <v>116585.1754884331</v>
+        <v>116585.175488433</v>
       </c>
       <c r="M4" t="n">
         <v>116585.175488433</v>
       </c>
       <c r="N4" t="n">
-        <v>116585.1754884331</v>
+        <v>116585.175488433</v>
       </c>
       <c r="O4" t="n">
         <v>116585.175488433</v>
@@ -26476,19 +26476,19 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>70487.90653947926</v>
+        <v>70487.90653947927</v>
       </c>
       <c r="F5" t="n">
-        <v>70487.90653947926</v>
+        <v>70487.90653947927</v>
       </c>
       <c r="G5" t="n">
-        <v>75344.02665346202</v>
+        <v>75344.02665346203</v>
       </c>
       <c r="H5" t="n">
-        <v>75344.02665346202</v>
+        <v>75344.02665346203</v>
       </c>
       <c r="I5" t="n">
-        <v>75344.02665346202</v>
+        <v>75344.02665346203</v>
       </c>
       <c r="J5" t="n">
         <v>75344.02665346203</v>
@@ -26500,7 +26500,7 @@
         <v>75344.02665346203</v>
       </c>
       <c r="M5" t="n">
-        <v>75344.02665346203</v>
+        <v>75344.02665346202</v>
       </c>
       <c r="N5" t="n">
         <v>75344.02665346203</v>
@@ -26522,46 +26522,46 @@
         <v>153609.2084375786</v>
       </c>
       <c r="C6" t="n">
-        <v>234378.6399691266</v>
+        <v>234378.6399691264</v>
       </c>
       <c r="D6" t="n">
-        <v>234378.6399691264</v>
+        <v>234378.6399691263</v>
       </c>
       <c r="E6" t="n">
-        <v>-300891.8120574214</v>
+        <v>-301154.6258929545</v>
       </c>
       <c r="F6" t="n">
-        <v>390338.8519319449</v>
+        <v>390076.038096412</v>
       </c>
       <c r="G6" t="n">
-        <v>354864.2730358629</v>
+        <v>354856.5109535927</v>
       </c>
       <c r="H6" t="n">
-        <v>401075.0771513653</v>
+        <v>401067.3150690952</v>
       </c>
       <c r="I6" t="n">
-        <v>401075.0771513655</v>
+        <v>401067.3150690956</v>
       </c>
       <c r="J6" t="n">
-        <v>318051.7183534384</v>
+        <v>318043.9562711683</v>
       </c>
       <c r="K6" t="n">
-        <v>401075.0771513657</v>
+        <v>401067.3150690956</v>
       </c>
       <c r="L6" t="n">
-        <v>354864.2730358629</v>
+        <v>354856.510953593</v>
       </c>
       <c r="M6" t="n">
-        <v>233096.4029811714</v>
+        <v>233088.6408989015</v>
       </c>
       <c r="N6" t="n">
-        <v>401075.0771513655</v>
+        <v>401067.3150690954</v>
       </c>
       <c r="O6" t="n">
-        <v>381111.6609525447</v>
+        <v>381103.8988702746</v>
       </c>
       <c r="P6" t="n">
-        <v>401075.0771513658</v>
+        <v>401067.3150690956</v>
       </c>
     </row>
   </sheetData>
@@ -26692,31 +26692,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="F2" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="G2" t="n">
         <v>82.71777539290478</v>
       </c>
       <c r="H2" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="I2" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J2" t="n">
         <v>82.71777539290476</v>
       </c>
       <c r="K2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="L2" t="n">
         <v>82.71777539290476</v>
       </c>
       <c r="M2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="N2" t="n">
         <v>82.71777539290476</v>
@@ -26725,7 +26725,7 @@
         <v>82.71777539290476</v>
       </c>
       <c r="P2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
     <row r="3">
@@ -26744,16 +26744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>585.0208306634612</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="F3" t="n">
-        <v>585.0208306634612</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="G3" t="n">
-        <v>585.0208306634612</v>
+        <v>585.0208306634614</v>
       </c>
       <c r="H3" t="n">
-        <v>585.0208306634612</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="I3" t="n">
         <v>585.0208306634613</v>
@@ -26796,19 +26796,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>915.0751954850731</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="F4" t="n">
-        <v>915.0751954850731</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="G4" t="n">
-        <v>915.0751954850732</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="H4" t="n">
-        <v>915.0751954850732</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="I4" t="n">
-        <v>915.0751954850732</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="J4" t="n">
         <v>915.0751954850733</v>
@@ -26829,7 +26829,7 @@
         <v>915.0751954850733</v>
       </c>
       <c r="P4" t="n">
-        <v>915.0751954850732</v>
+        <v>915.0751954850733</v>
       </c>
     </row>
   </sheetData>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>57.76350514437853</v>
+        <v>57.76350514437843</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852622</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437853</v>
+        <v>57.76350514437842</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852622</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>585.0208306634612</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>674.060906607414</v>
+        <v>674.0609066074143</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.553426905534748e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776593</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.0609066074142</v>
+        <v>674.0609066074143</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437853</v>
+        <v>57.76350514437843</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852622</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.060906607414</v>
+        <v>674.0609066074143</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.553426905534748e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>297.0627372897776</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>381.7025041237114</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27439,10 +27439,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27476,7 +27476,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>123.2883010256392</v>
       </c>
       <c r="T3" t="n">
-        <v>76.98006426597986</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27518,10 +27518,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,7 +27552,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>346.5179064736643</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>273.8529271457276</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,7 +27634,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,7 +27710,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27749,19 +27749,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>71.10541651401849</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>27.66830772186225</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27795,7 +27795,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>246.6952108678958</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>319.1698855250446</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>231.8333861825618</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27910,16 +27910,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>81.55953011607103</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>99.74187743235981</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28053,10 +28053,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="C11" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="D11" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="E11" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="F11" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="G11" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="H11" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="I11" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.135189281195323</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S11" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="T11" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="U11" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="V11" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="W11" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="X11" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="C13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="D13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="E13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="F13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="G13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="H13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="I13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="J13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="K13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="L13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="M13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="N13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="O13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="P13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="R13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="S13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="T13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="U13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="V13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="W13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="X13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852629</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="C14" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="D14" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="E14" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="F14" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="G14" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="H14" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="I14" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2.135189281195323</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S14" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="T14" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="U14" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="V14" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="W14" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="X14" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="C16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="D16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="E16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="F16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="G16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="H16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="I16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="J16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="K16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="L16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="M16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="N16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="O16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="P16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="R16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="S16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="T16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="U16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="V16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="W16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="X16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.95427024852625</v>
+        <v>24.95427024852635</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2.135189281195323</v>
+        <v>2.135189281195267</v>
       </c>
       <c r="S17" t="n">
         <v>82.71777539290478</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="C20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="D20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="E20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="F20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="G20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="H20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="I20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>2.135189281195323</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="T20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="U20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="V20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="W20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="X20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="C22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="D22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="E22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="F22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="G22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="H22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="I22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="J22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="K22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="L22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="M22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="N22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="O22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="P22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="R22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="S22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="T22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="U22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="V22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="W22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="X22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="C25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="D25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="E25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="F25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="G25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="H25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="I25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="J25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="K25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="L25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="M25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="N25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="O25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="P25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="R25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="S25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="T25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="U25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="V25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="W25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="X25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290476</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="C29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="D29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="E29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="F29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="G29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="H29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="I29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="T29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="U29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="V29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="W29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="X29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="C31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="D31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="E31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="F31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="G31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="H31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="I31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="J31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="K31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="L31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="M31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="N31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="O31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="P31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="R31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="S31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="T31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="U31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="V31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="W31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="X31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290477</v>
       </c>
     </row>
     <row r="32">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="C35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="D35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="E35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="F35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="G35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="H35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="I35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="T35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="U35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="V35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="W35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="X35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Y35" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="C37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="D37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="E37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="F37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="G37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="H37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="I37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="J37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="K37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="L37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="M37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="N37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="O37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="P37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="R37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="S37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="T37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="U37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="V37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="W37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="X37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Y37" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
     <row r="38">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="C44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="D44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="E44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="F44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="G44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="H44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="I44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>2.135189281194394</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="T44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="U44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="V44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="W44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="X44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="C46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="D46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="E46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="F46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="G46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="H46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="I46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="J46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="K46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="L46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="M46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="N46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="O46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="P46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="R46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="S46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="T46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="U46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="V46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="W46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="X46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290468</v>
       </c>
     </row>
   </sheetData>
@@ -31750,28 +31750,28 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.351842535330495</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H11" t="n">
-        <v>24.08580736495344</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I11" t="n">
-        <v>90.66940934332902</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J11" t="n">
-        <v>199.6096953830068</v>
+        <v>199.6096953830069</v>
       </c>
       <c r="K11" t="n">
         <v>299.1631899035468</v>
       </c>
       <c r="L11" t="n">
-        <v>371.1383908941675</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M11" t="n">
-        <v>412.9629705818512</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N11" t="n">
-        <v>419.645143185359</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O11" t="n">
         <v>396.2590089746664</v>
@@ -31780,13 +31780,13 @@
         <v>338.1978963836947</v>
       </c>
       <c r="Q11" t="n">
-        <v>253.9725355871712</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R11" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S11" t="n">
-        <v>53.59261177384372</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T11" t="n">
         <v>10.29519069840925</v>
@@ -31835,10 +31835,10 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I12" t="n">
-        <v>43.32465585573746</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J12" t="n">
-        <v>118.8861671068077</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K12" t="n">
         <v>203.1953954956288</v>
@@ -31847,7 +31847,7 @@
         <v>273.2212851131571</v>
       </c>
       <c r="M12" t="n">
-        <v>318.8363527115863</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N12" t="n">
         <v>327.2750022406848</v>
@@ -31862,16 +31862,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R12" t="n">
-        <v>78.12787621577321</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S12" t="n">
         <v>23.37323790433733</v>
       </c>
       <c r="T12" t="n">
-        <v>5.072020220563402</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08278596660332002</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H13" t="n">
-        <v>9.37951430145681</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I13" t="n">
         <v>31.72539193171689</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58536065688094</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K13" t="n">
-        <v>122.5666592767054</v>
+        <v>122.5666592767055</v>
       </c>
       <c r="L13" t="n">
         <v>156.8431256503319</v>
       </c>
       <c r="M13" t="n">
-        <v>165.3690849693452</v>
+        <v>165.3690849693453</v>
       </c>
       <c r="N13" t="n">
-        <v>161.4369777468532</v>
+        <v>161.4369777468533</v>
       </c>
       <c r="O13" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P13" t="n">
-        <v>127.5920841171587</v>
+        <v>127.5920841171588</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.33814543018264</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R13" t="n">
-        <v>47.4346398108439</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S13" t="n">
-        <v>18.38499889150581</v>
+        <v>18.38499889150582</v>
       </c>
       <c r="T13" t="n">
-        <v>4.507537547734863</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05754303252427493</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,28 +31987,28 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.351842535330495</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H14" t="n">
-        <v>24.08580736495344</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I14" t="n">
-        <v>90.66940934332902</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J14" t="n">
-        <v>199.6096953830068</v>
+        <v>199.6096953830069</v>
       </c>
       <c r="K14" t="n">
         <v>299.1631899035468</v>
       </c>
       <c r="L14" t="n">
-        <v>371.1383908941675</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M14" t="n">
-        <v>412.9629705818512</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N14" t="n">
-        <v>419.645143185359</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O14" t="n">
         <v>396.2590089746664</v>
@@ -32017,13 +32017,13 @@
         <v>338.1978963836947</v>
       </c>
       <c r="Q14" t="n">
-        <v>253.9725355871712</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R14" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S14" t="n">
-        <v>53.59261177384372</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T14" t="n">
         <v>10.29519069840925</v>
@@ -32072,10 +32072,10 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I15" t="n">
-        <v>43.32465585573746</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J15" t="n">
-        <v>118.8861671068077</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K15" t="n">
         <v>203.1953954956288</v>
@@ -32084,7 +32084,7 @@
         <v>273.2212851131571</v>
       </c>
       <c r="M15" t="n">
-        <v>318.8363527115863</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N15" t="n">
         <v>327.2750022406848</v>
@@ -32099,16 +32099,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R15" t="n">
-        <v>78.12787621577321</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S15" t="n">
         <v>23.37323790433733</v>
       </c>
       <c r="T15" t="n">
-        <v>5.072020220563402</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08278596660332002</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H16" t="n">
-        <v>9.37951430145681</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I16" t="n">
         <v>31.72539193171689</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58536065688094</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K16" t="n">
-        <v>122.5666592767054</v>
+        <v>122.5666592767055</v>
       </c>
       <c r="L16" t="n">
         <v>156.8431256503319</v>
       </c>
       <c r="M16" t="n">
-        <v>165.3690849693452</v>
+        <v>165.3690849693453</v>
       </c>
       <c r="N16" t="n">
-        <v>161.4369777468532</v>
+        <v>161.4369777468533</v>
       </c>
       <c r="O16" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P16" t="n">
-        <v>127.5920841171587</v>
+        <v>127.5920841171588</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.33814543018264</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R16" t="n">
-        <v>47.4346398108439</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S16" t="n">
-        <v>18.38499889150581</v>
+        <v>18.38499889150582</v>
       </c>
       <c r="T16" t="n">
-        <v>4.507537547734863</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05754303252427493</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.351842535330495</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H17" t="n">
-        <v>24.08580736495344</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I17" t="n">
-        <v>90.66940934332902</v>
+        <v>90.66940934332905</v>
       </c>
       <c r="J17" t="n">
-        <v>199.6096953830068</v>
+        <v>199.6096953830069</v>
       </c>
       <c r="K17" t="n">
-        <v>299.1631899035468</v>
+        <v>299.1631899035469</v>
       </c>
       <c r="L17" t="n">
-        <v>371.1383908941675</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M17" t="n">
-        <v>412.9629705818512</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N17" t="n">
-        <v>419.645143185359</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O17" t="n">
-        <v>396.2590089746664</v>
+        <v>396.2590089746665</v>
       </c>
       <c r="P17" t="n">
-        <v>338.1978963836947</v>
+        <v>338.1978963836948</v>
       </c>
       <c r="Q17" t="n">
-        <v>253.9725355871712</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R17" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S17" t="n">
-        <v>53.59261177384372</v>
+        <v>53.59261177384374</v>
       </c>
       <c r="T17" t="n">
         <v>10.29519069840925</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1881474028264396</v>
+        <v>0.1881474028264397</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I18" t="n">
-        <v>43.32465585573746</v>
+        <v>43.32465585573748</v>
       </c>
       <c r="J18" t="n">
-        <v>118.8861671068077</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K18" t="n">
-        <v>203.1953954956288</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L18" t="n">
-        <v>273.2212851131571</v>
+        <v>273.2212851131572</v>
       </c>
       <c r="M18" t="n">
-        <v>318.8363527115863</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N18" t="n">
-        <v>327.2750022406848</v>
+        <v>327.2750022406849</v>
       </c>
       <c r="O18" t="n">
-        <v>299.3926886886866</v>
+        <v>299.3926886886867</v>
       </c>
       <c r="P18" t="n">
-        <v>240.2890275983564</v>
+        <v>240.2890275983565</v>
       </c>
       <c r="Q18" t="n">
         <v>160.6268514682017</v>
       </c>
       <c r="R18" t="n">
-        <v>78.12787621577321</v>
+        <v>78.12787621577324</v>
       </c>
       <c r="S18" t="n">
-        <v>23.37323790433733</v>
+        <v>23.37323790433734</v>
       </c>
       <c r="T18" t="n">
-        <v>5.072020220563402</v>
+        <v>5.072020220563404</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08278596660332002</v>
+        <v>0.08278596660332005</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H19" t="n">
-        <v>9.37951430145681</v>
+        <v>9.379514301456814</v>
       </c>
       <c r="I19" t="n">
-        <v>31.72539193171689</v>
+        <v>31.7253919317169</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58536065688094</v>
+        <v>74.58536065688097</v>
       </c>
       <c r="K19" t="n">
-        <v>122.5666592767054</v>
+        <v>122.5666592767055</v>
       </c>
       <c r="L19" t="n">
-        <v>156.8431256503319</v>
+        <v>156.843125650332</v>
       </c>
       <c r="M19" t="n">
-        <v>165.3690849693452</v>
+        <v>165.3690849693453</v>
       </c>
       <c r="N19" t="n">
-        <v>161.4369777468532</v>
+        <v>161.4369777468533</v>
       </c>
       <c r="O19" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P19" t="n">
-        <v>127.5920841171587</v>
+        <v>127.5920841171588</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.33814543018264</v>
+        <v>88.33814543018268</v>
       </c>
       <c r="R19" t="n">
-        <v>47.4346398108439</v>
+        <v>47.43463981084392</v>
       </c>
       <c r="S19" t="n">
-        <v>18.38499889150581</v>
+        <v>18.38499889150582</v>
       </c>
       <c r="T19" t="n">
-        <v>4.507537547734863</v>
+        <v>4.507537547734865</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05754303252427493</v>
+        <v>0.05754303252427496</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,28 +32461,28 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.351842535330495</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H20" t="n">
-        <v>24.08580736495344</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I20" t="n">
-        <v>90.66940934332902</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J20" t="n">
-        <v>199.6096953830068</v>
+        <v>199.6096953830069</v>
       </c>
       <c r="K20" t="n">
         <v>299.1631899035468</v>
       </c>
       <c r="L20" t="n">
-        <v>371.1383908941675</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M20" t="n">
-        <v>412.9629705818512</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N20" t="n">
-        <v>419.645143185359</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O20" t="n">
         <v>396.2590089746664</v>
@@ -32491,13 +32491,13 @@
         <v>338.1978963836947</v>
       </c>
       <c r="Q20" t="n">
-        <v>253.9725355871712</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R20" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S20" t="n">
-        <v>53.59261177384372</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T20" t="n">
         <v>10.29519069840925</v>
@@ -32546,10 +32546,10 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I21" t="n">
-        <v>43.32465585573746</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J21" t="n">
-        <v>118.8861671068077</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K21" t="n">
         <v>203.1953954956288</v>
@@ -32558,7 +32558,7 @@
         <v>273.2212851131571</v>
       </c>
       <c r="M21" t="n">
-        <v>318.8363527115863</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N21" t="n">
         <v>327.2750022406848</v>
@@ -32573,16 +32573,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R21" t="n">
-        <v>78.12787621577321</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S21" t="n">
         <v>23.37323790433733</v>
       </c>
       <c r="T21" t="n">
-        <v>5.072020220563402</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08278596660332002</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H22" t="n">
-        <v>9.37951430145681</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I22" t="n">
         <v>31.72539193171689</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58536065688094</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K22" t="n">
-        <v>122.5666592767054</v>
+        <v>122.5666592767055</v>
       </c>
       <c r="L22" t="n">
         <v>156.8431256503319</v>
       </c>
       <c r="M22" t="n">
-        <v>165.3690849693452</v>
+        <v>165.3690849693453</v>
       </c>
       <c r="N22" t="n">
-        <v>161.4369777468532</v>
+        <v>161.4369777468533</v>
       </c>
       <c r="O22" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P22" t="n">
-        <v>127.5920841171587</v>
+        <v>127.5920841171588</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.33814543018264</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R22" t="n">
-        <v>47.4346398108439</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S22" t="n">
-        <v>18.38499889150581</v>
+        <v>18.38499889150582</v>
       </c>
       <c r="T22" t="n">
-        <v>4.507537547734863</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05754303252427493</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>43.28534947792182</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>403.218751429731</v>
       </c>
       <c r="L11" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M11" t="n">
-        <v>632.1302708474109</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N11" t="n">
-        <v>627.5790040007522</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O11" t="n">
-        <v>546.960978815725</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P11" t="n">
         <v>428.7636087999078</v>
       </c>
       <c r="Q11" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>329.8191935338484</v>
       </c>
       <c r="L12" t="n">
-        <v>134.6669053332829</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M12" t="n">
-        <v>642.4073825395678</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N12" t="n">
-        <v>675.275664500905</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O12" t="n">
-        <v>156.7964442442421</v>
+        <v>156.7964442442422</v>
       </c>
       <c r="P12" t="n">
-        <v>323.0112607803883</v>
+        <v>323.0112607803878</v>
       </c>
       <c r="Q12" t="n">
-        <v>230.7223651180292</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.180450788734419</v>
+        <v>6.180450788734461</v>
       </c>
       <c r="K13" t="n">
-        <v>125.2514376993488</v>
+        <v>125.2514376993489</v>
       </c>
       <c r="L13" t="n">
-        <v>209.3874211591743</v>
+        <v>209.3874211591744</v>
       </c>
       <c r="M13" t="n">
         <v>229.9072321797121</v>
       </c>
       <c r="N13" t="n">
-        <v>230.5234203746081</v>
+        <v>230.5234203746082</v>
       </c>
       <c r="O13" t="n">
         <v>198.6525764438036</v>
@@ -35586,7 +35586,7 @@
         <v>149.8249136305785</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.1303724270145</v>
+        <v>27.13037242701456</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,22 +35650,22 @@
         <v>403.218751429731</v>
       </c>
       <c r="L14" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M14" t="n">
-        <v>632.1302708474109</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N14" t="n">
-        <v>627.5790040007522</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O14" t="n">
-        <v>546.960978815725</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P14" t="n">
         <v>428.7636087999078</v>
       </c>
       <c r="Q14" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126985</v>
       </c>
       <c r="L15" t="n">
-        <v>505.5072506367421</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M15" t="n">
-        <v>255.2809642593578</v>
+        <v>529.3837480123916</v>
       </c>
       <c r="N15" t="n">
-        <v>195.9332901573515</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O15" t="n">
         <v>550.6587635209717</v>
@@ -35744,7 +35744,7 @@
         <v>424.7773888239633</v>
       </c>
       <c r="Q15" t="n">
-        <v>230.7223651180292</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.180450788734415</v>
+        <v>6.180450788734518</v>
       </c>
       <c r="K16" t="n">
-        <v>125.2514376993488</v>
+        <v>125.251437699349</v>
       </c>
       <c r="L16" t="n">
-        <v>209.3874211591743</v>
+        <v>209.3874211591744</v>
       </c>
       <c r="M16" t="n">
-        <v>229.9072321797121</v>
+        <v>229.9072321797122</v>
       </c>
       <c r="N16" t="n">
-        <v>230.5234203746081</v>
+        <v>230.5234203746082</v>
       </c>
       <c r="O16" t="n">
-        <v>198.6525764438036</v>
+        <v>198.6525764438037</v>
       </c>
       <c r="P16" t="n">
-        <v>149.8249136305785</v>
+        <v>149.8249136305786</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.1303724270145</v>
+        <v>27.13037242701461</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>187.6604060283943</v>
+        <v>187.6604060283944</v>
       </c>
       <c r="K17" t="n">
-        <v>403.218751429731</v>
+        <v>403.2187514297311</v>
       </c>
       <c r="L17" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M17" t="n">
-        <v>632.1302708474109</v>
+        <v>632.1302708474111</v>
       </c>
       <c r="N17" t="n">
-        <v>627.5790040007522</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O17" t="n">
-        <v>546.960978815725</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P17" t="n">
-        <v>428.7636087999078</v>
+        <v>428.7636087999079</v>
       </c>
       <c r="Q17" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>329.8191935338484</v>
+        <v>329.8191935338485</v>
       </c>
       <c r="L18" t="n">
-        <v>505.5072506367421</v>
+        <v>505.5072506367422</v>
       </c>
       <c r="M18" t="n">
-        <v>255.2809642593578</v>
+        <v>642.4073825395681</v>
       </c>
       <c r="N18" t="n">
-        <v>195.9332901573515</v>
+        <v>195.9332901573516</v>
       </c>
       <c r="O18" t="n">
-        <v>550.6587635209717</v>
+        <v>550.6587635209718</v>
       </c>
       <c r="P18" t="n">
-        <v>424.7773888239633</v>
+        <v>155.7905463243023</v>
       </c>
       <c r="Q18" t="n">
-        <v>230.7223651180292</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311297</v>
       </c>
       <c r="K19" t="n">
         <v>183.0149428437274</v>
       </c>
       <c r="L19" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M19" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240907</v>
       </c>
       <c r="N19" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O19" t="n">
-        <v>256.4160815881821</v>
+        <v>256.4160815881822</v>
       </c>
       <c r="P19" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139308</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>187.6604060283956</v>
+        <v>187.6604060283943</v>
       </c>
       <c r="K20" t="n">
         <v>403.218751429731</v>
       </c>
       <c r="L20" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M20" t="n">
-        <v>632.1302708474109</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N20" t="n">
-        <v>627.5790040007522</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O20" t="n">
-        <v>546.960978815725</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P20" t="n">
         <v>428.7636087999078</v>
       </c>
       <c r="Q20" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126985</v>
       </c>
       <c r="L21" t="n">
         <v>505.5072506367421</v>
       </c>
       <c r="M21" t="n">
-        <v>255.2809642593578</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N21" t="n">
         <v>195.9332901573515</v>
@@ -36218,7 +36218,7 @@
         <v>424.7773888239633</v>
       </c>
       <c r="Q21" t="n">
-        <v>230.7223651180292</v>
+        <v>226.2007596309476</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311299</v>
       </c>
       <c r="K22" t="n">
         <v>183.0149428437274</v>
       </c>
       <c r="L22" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M22" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240907</v>
       </c>
       <c r="N22" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O22" t="n">
-        <v>256.4160815881821</v>
+        <v>256.4160815881822</v>
       </c>
       <c r="P22" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139308</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>329.8191935338484</v>
       </c>
       <c r="L24" t="n">
-        <v>505.5072506367421</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M24" t="n">
-        <v>255.2809642593575</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N24" t="n">
-        <v>195.9332901573515</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O24" t="n">
-        <v>550.6587635209717</v>
+        <v>156.7964442442422</v>
       </c>
       <c r="P24" t="n">
-        <v>424.7773888239633</v>
+        <v>323.0112607803878</v>
       </c>
       <c r="Q24" t="n">
         <v>230.7223651180293</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.94395593311296</v>
+        <v>63.94395593311293</v>
       </c>
       <c r="K25" t="n">
         <v>183.0149428437274</v>
       </c>
       <c r="L25" t="n">
-        <v>267.1509263035529</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M25" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N25" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O25" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P25" t="n">
-        <v>207.5884187749571</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.89387757139305</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K27" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126985</v>
       </c>
       <c r="L27" t="n">
         <v>505.5072506367421</v>
       </c>
       <c r="M27" t="n">
-        <v>255.2809642593575</v>
+        <v>519.7462012719361</v>
       </c>
       <c r="N27" t="n">
         <v>195.9332901573515</v>
@@ -36914,19 +36914,19 @@
         <v>329.8191935338484</v>
       </c>
       <c r="L30" t="n">
-        <v>505.5072506367421</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M30" t="n">
-        <v>255.2809642593575</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N30" t="n">
-        <v>195.9332901573515</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O30" t="n">
-        <v>550.6587635209717</v>
+        <v>156.7964442442422</v>
       </c>
       <c r="P30" t="n">
-        <v>424.7773888239633</v>
+        <v>323.0112607803878</v>
       </c>
       <c r="Q30" t="n">
         <v>230.7223651180293</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.94395593311293</v>
+        <v>63.94395593311295</v>
       </c>
       <c r="K31" t="n">
         <v>183.0149428437274</v>
       </c>
       <c r="L31" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M31" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N31" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O31" t="n">
         <v>256.4160815881821</v>
@@ -37008,7 +37008,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139303</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>329.8191935338484</v>
       </c>
       <c r="L33" t="n">
-        <v>505.5072506367421</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M33" t="n">
-        <v>255.2809642593575</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N33" t="n">
-        <v>195.9332901573515</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O33" t="n">
-        <v>550.6587635209717</v>
+        <v>156.7964442442422</v>
       </c>
       <c r="P33" t="n">
-        <v>424.7773888239633</v>
+        <v>323.0112607803878</v>
       </c>
       <c r="Q33" t="n">
         <v>230.7223651180293</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>63.94395593311293</v>
+        <v>63.94395593311286</v>
       </c>
       <c r="K37" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L37" t="n">
         <v>267.1509263035528</v>
       </c>
       <c r="M37" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N37" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O37" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P37" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139295</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>187.6604060283943</v>
+        <v>187.6604060283944</v>
       </c>
       <c r="K38" t="n">
         <v>403.218751429731</v>
@@ -37552,7 +37552,7 @@
         <v>632.130270847411</v>
       </c>
       <c r="N38" t="n">
-        <v>627.5790040007524</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O38" t="n">
         <v>546.9609788157251</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>118.1395757805499</v>
+        <v>44.67607654515096</v>
       </c>
       <c r="K39" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126985</v>
       </c>
       <c r="L39" t="n">
         <v>505.5072506367421</v>
       </c>
       <c r="M39" t="n">
-        <v>255.2809642593575</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N39" t="n">
-        <v>195.9332901573515</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O39" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P39" t="n">
-        <v>424.7773888239633</v>
+        <v>106.3146201840262</v>
       </c>
       <c r="Q39" t="n">
-        <v>230.7223651180293</v>
+        <v>20.64507738218018</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>187.6604060283944</v>
+        <v>187.6604060283943</v>
       </c>
       <c r="K41" t="n">
         <v>403.218751429731</v>
@@ -37862,13 +37862,13 @@
         <v>329.8191935338484</v>
       </c>
       <c r="L42" t="n">
-        <v>505.5072506367421</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M42" t="n">
-        <v>255.2809642593575</v>
+        <v>176.702318789568</v>
       </c>
       <c r="N42" t="n">
-        <v>195.9332901573515</v>
+        <v>645.3522809306003</v>
       </c>
       <c r="O42" t="n">
         <v>550.6587635209717</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>63.94395593311293</v>
+        <v>63.94395593311286</v>
       </c>
       <c r="K46" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L46" t="n">
         <v>267.1509263035528</v>
       </c>
       <c r="M46" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N46" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O46" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P46" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139295</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
